--- a/Resources/2006/Advanced_Percentile_2006.xlsx
+++ b/Resources/2006/Advanced_Percentile_2006.xlsx
@@ -1453,22 +1453,22 @@
     <t>Kobe Bryant</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Manu Ginobili</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Chauncey Billups</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Ray Allen</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Shawn Marion</t>
@@ -1486,7 +1486,7 @@
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Carmelo Anthony</t>
@@ -1579,7 +1579,7 @@
     <t>Andres Nocioni</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Amir Johnson</t>
@@ -1591,13 +1591,13 @@
     <t>Rasheed Wallace</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Jason Kidd*</t>
-  </si>
-  <si>
-    <t>Tracy McGrady*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Jason Kidd</t>
+  </si>
+  <si>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Lamar Odom</t>
@@ -2005,7 +2005,7 @@
     <t>Kendrick Perkins</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Stromile Swift</t>
@@ -2179,7 +2179,7 @@
     <t>Laron Profit</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Salim Stoudamire</t>
